--- a/172-contenu-transporter-le-rôle-de-coordination-du-professionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/172-contenu-transporter-le-rôle-de-coordination-du-professionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T10:53:49+00:00</t>
+    <t>2025-01-13T11:02:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/172-contenu-transporter-le-rôle-de-coordination-du-professionnel/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/172-contenu-transporter-le-rôle-de-coordination-du-professionnel/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-13T11:02:30+00:00</t>
+    <t>2025-01-13T13:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
